--- a/param.xlsx
+++ b/param.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27978\Desktop\2025年电工杯竞赛赛题\B题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ACC55F-1FB0-4235-9F82-E48922CB5A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8085E4-6D38-45AB-BDFF-C21799BD9D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2170" windowWidth="20160" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="20160" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
